--- a/public/assets/tempfiles/testsUpload.xlsx
+++ b/public/assets/tempfiles/testsUpload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">paper_code</t>
   </si>
@@ -40,25 +40,34 @@
     <t xml:space="preserve">duration</t>
   </si>
   <si>
+    <t xml:space="preserve">slot</t>
+  </si>
+  <si>
     <t xml:space="preserve">testfrom</t>
   </si>
   <si>
     <t xml:space="preserve">testto</t>
   </si>
   <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irrigation Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-01 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-31 23:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanics</t>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 23:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-17 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-17 23:00:00</t>
   </si>
 </sst>
 </file>
@@ -168,21 +177,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="17.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,22 +214,25 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>222212</v>
+        <v>121212</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>40</v>
@@ -230,22 +243,25 @@
       <c r="F2" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
+      <c r="G2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>222213</v>
+        <v>121213</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>40</v>
@@ -256,17 +272,20 @@
       <c r="F3" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
+      <c r="G3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="52" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="78" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
